--- a/DOC/DMS开发计划-9.14.xlsx
+++ b/DOC/DMS开发计划-9.14.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="339">
   <si>
     <t>功能模块</t>
   </si>
@@ -940,6 +940,437 @@
   </si>
   <si>
     <t>工单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增（主界面/详情界面）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改（主界面/详情界面）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定（主界面/详情界面）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存（详情界面）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完工（主界面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详情界面）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算（转预结算/结算收款）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印报价单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印派工单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印结算单/结算单小票</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印领料单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印报销单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印查车单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买计次卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增报销单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增查车单/查车单派工/查看查车单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆详情/客户详情/服务记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品录入-套餐、工时、配件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>计次卡详情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>储值卡详情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐-新增，修改，删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时-新增，修改，删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件-新增，修改，删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时注意优惠率，金额，小计的计算</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单金额汇总信息显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合开单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查开单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗车开单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售开单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>理赔开单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退货</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单（仓库模块）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成应付</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>耗材出库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归库</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修出库-出库/归库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移仓单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付款管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充值记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消费明细</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它应收单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它应付单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它收入单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用支出单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部转账单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增、删除、修改</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增、修改、删除</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约转工单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>储值卡定义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>计次卡定义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总部、分店操作权限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本店套餐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修工时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户车辆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返工</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1115,7 +1546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1233,9 +1664,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1243,6 +1671,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1591,17 +2028,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XDT37"/>
+  <dimension ref="A1:XDT61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="7" customWidth="1"/>
     <col min="4" max="6" width="12.625" style="7" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="6" customWidth="1"/>
     <col min="8" max="16348" width="9" style="5"/>
@@ -1631,10 +2068,12 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="15" t="s">
+        <v>271</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="15"/>
       <c r="E2" s="10"/>
@@ -1642,8 +2081,10 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="15" t="s">
+        <v>272</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="15"/>
       <c r="E3" s="10"/>
@@ -1651,8 +2092,10 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="15" t="s">
+        <v>273</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="15"/>
       <c r="E4" s="10"/>
@@ -1660,8 +2103,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="15" t="s">
+        <v>274</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="15"/>
       <c r="E5" s="10"/>
@@ -1669,8 +2114,10 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="15"/>
       <c r="E6" s="10"/>
@@ -1678,8 +2125,10 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="15" t="s">
+        <v>338</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="15"/>
       <c r="E7" s="10"/>
@@ -1687,8 +2136,10 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="15" t="s">
+        <v>276</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="15"/>
       <c r="E8" s="10"/>
@@ -1696,8 +2147,10 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="15"/>
       <c r="E9" s="10"/>
@@ -1705,8 +2158,10 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="15" t="s">
+        <v>284</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="15"/>
       <c r="E10" s="10"/>
@@ -1714,8 +2169,10 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="15" t="s">
+        <v>277</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="15"/>
       <c r="E11" s="10"/>
@@ -1723,8 +2180,10 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="15" t="s">
+        <v>278</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="15"/>
       <c r="E12" s="10"/>
@@ -1732,8 +2191,10 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="15"/>
       <c r="E13" s="10"/>
@@ -1741,8 +2202,10 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="15" t="s">
+        <v>280</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="15"/>
       <c r="E14" s="10"/>
@@ -1750,8 +2213,10 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="15" t="s">
+        <v>281</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="15"/>
       <c r="E15" s="10"/>
@@ -1759,8 +2224,10 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="15"/>
       <c r="E16" s="10"/>
@@ -1768,8 +2235,10 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="15" t="s">
+        <v>285</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="15"/>
       <c r="E17" s="10"/>
@@ -1777,8 +2246,10 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="15" t="s">
+        <v>286</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="15"/>
       <c r="E18" s="10"/>
@@ -1786,8 +2257,10 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="15" t="s">
+        <v>287</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="15"/>
       <c r="E19" s="10"/>
@@ -1795,8 +2268,10 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="15" t="s">
+        <v>288</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="15"/>
       <c r="E20" s="10"/>
@@ -1804,8 +2279,10 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="15" t="s">
+        <v>289</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="15"/>
       <c r="E21" s="10"/>
@@ -1813,8 +2290,10 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="15" t="s">
+        <v>290</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="15"/>
       <c r="E22" s="10"/>
@@ -1822,35 +2301,49 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>294</v>
+      </c>
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>294</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A25" s="40"/>
+      <c r="B25" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>294</v>
+      </c>
       <c r="D25" s="15"/>
       <c r="E25" s="10"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
@@ -1858,8 +2351,10 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="15" t="s">
+        <v>297</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="15"/>
       <c r="E27" s="10"/>
@@ -1867,8 +2362,10 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="39"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="15" t="s">
+        <v>298</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="15"/>
       <c r="E28" s="10"/>
@@ -1876,8 +2373,10 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="39"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="15" t="s">
+        <v>299</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="15"/>
       <c r="E29" s="10"/>
@@ -1885,8 +2384,10 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="15" t="s">
+        <v>300</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="15"/>
       <c r="E30" s="10"/>
@@ -1894,8 +2395,10 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="16" t="s">
+        <v>301</v>
+      </c>
       <c r="C31" s="4"/>
       <c r="D31" s="15"/>
       <c r="E31" s="10"/>
@@ -1903,67 +2406,365 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>296</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="15"/>
       <c r="E32" s="10"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A33" s="39"/>
-      <c r="B33" s="4"/>
+    <row r="33" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A33" s="40"/>
+      <c r="B33" s="15" t="s">
+        <v>302</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="15"/>
       <c r="E33" s="10"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="38"/>
-    </row>
-    <row r="34" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A34" s="39"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A34" s="40"/>
+      <c r="B34" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>304</v>
+      </c>
       <c r="D34" s="15"/>
       <c r="E34" s="10"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="38"/>
-    </row>
-    <row r="35" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A35" s="39"/>
-      <c r="B35" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A35" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>307</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="15"/>
       <c r="E35" s="10"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="38"/>
-    </row>
-    <row r="36" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A36" s="39"/>
-      <c r="B36" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A36" s="40"/>
+      <c r="B36" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="15"/>
       <c r="E36" s="10"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="38"/>
-    </row>
-    <row r="37" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A37" s="40"/>
+      <c r="B37" s="15" t="s">
+        <v>308</v>
+      </c>
       <c r="C37" s="4"/>
       <c r="D37" s="15"/>
       <c r="E37" s="10"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="38"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A38" s="40"/>
+      <c r="B38" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A39" s="40"/>
+      <c r="B39" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A40" s="41"/>
+      <c r="B40" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A41" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A42" s="42"/>
+      <c r="B42" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A43" s="42"/>
+      <c r="B43" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A44" s="42"/>
+      <c r="B44" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A45" s="42"/>
+      <c r="B45" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A46" s="42"/>
+      <c r="B46" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A47" s="42"/>
+      <c r="B47" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A48" s="42"/>
+      <c r="B48" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A49" s="41"/>
+      <c r="B49" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A50" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
+      <c r="A51" s="44"/>
+      <c r="B51" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A52" s="44"/>
+      <c r="B52" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A53" s="44"/>
+      <c r="B53" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A54" s="44"/>
+      <c r="B54" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A55" s="44"/>
+      <c r="B55" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A56" s="44"/>
+      <c r="B56" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A57" s="44"/>
+      <c r="B57" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A58" s="44"/>
+      <c r="B58" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A59" s="44"/>
+      <c r="B59" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="38"/>
+    </row>
+    <row r="60" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A60" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="38"/>
+    </row>
+    <row r="61" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A61" s="44"/>
+      <c r="B61" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A35"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A50:A59"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2021,7 +2822,7 @@
       </c>
     </row>
     <row r="2" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -2074,7 +2875,7 @@
       <c r="XFD2"/>
     </row>
     <row r="3" spans="1:8 16350:16384" s="5" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>23</v>
       </c>
@@ -2123,7 +2924,7 @@
       <c r="XFD3"/>
     </row>
     <row r="4" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="44"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>24</v>
       </c>
@@ -2172,7 +2973,7 @@
       <c r="XFD4"/>
     </row>
     <row r="5" spans="1:8 16350:16384" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -2227,7 +3028,7 @@
       <c r="XFD5"/>
     </row>
     <row r="6" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="19" t="s">
         <v>179</v>
       </c>
@@ -2278,7 +3079,7 @@
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="56" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -2329,7 +3130,7 @@
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
@@ -2378,7 +3179,7 @@
       <c r="XFD8"/>
     </row>
     <row r="9" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
@@ -2427,7 +3228,7 @@
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="56" t="s">
         <v>196</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -2445,7 +3246,7 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>214</v>
       </c>
@@ -2461,7 +3262,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="28" t="s">
         <v>215</v>
       </c>
@@ -2477,10 +3278,10 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="55" t="s">
         <v>182</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -2497,8 +3298,8 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="21" t="s">
         <v>10</v>
       </c>
@@ -2513,8 +3314,8 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="21" t="s">
         <v>9</v>
       </c>
@@ -2529,8 +3330,8 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8 16350:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="28" t="s">
         <v>184</v>
       </c>
@@ -2543,8 +3344,8 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="28" t="s">
         <v>185</v>
       </c>
@@ -2557,8 +3358,8 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="28" t="s">
         <v>186</v>
       </c>
@@ -2571,8 +3372,8 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="28" t="s">
         <v>255</v>
       </c>
@@ -2585,8 +3386,8 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="25" t="s">
         <v>187</v>
       </c>
@@ -2599,8 +3400,8 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="28" t="s">
         <v>201</v>
       </c>
@@ -2615,8 +3416,8 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="28" t="s">
         <v>202</v>
       </c>
@@ -2631,8 +3432,8 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="51"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="28" t="s">
         <v>203</v>
       </c>
@@ -2647,8 +3448,8 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="29" t="s">
         <v>204</v>
       </c>
@@ -2661,8 +3462,8 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="22" t="s">
         <v>205</v>
       </c>
@@ -2673,8 +3474,8 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="24" t="s">
         <v>206</v>
       </c>
@@ -2689,8 +3490,8 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="22" t="s">
         <v>207</v>
       </c>
@@ -2703,8 +3504,8 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="29" t="s">
         <v>208</v>
       </c>
@@ -2719,8 +3520,8 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="51"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="29" t="s">
         <v>209</v>
       </c>
@@ -2735,8 +3536,8 @@
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="29" t="s">
         <v>210</v>
       </c>
@@ -2751,8 +3552,8 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="29" t="s">
         <v>212</v>
       </c>
@@ -2767,8 +3568,8 @@
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="51"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="28" t="s">
         <v>188</v>
       </c>
@@ -2783,8 +3584,8 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="51"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="28" t="s">
         <v>189</v>
       </c>
@@ -2799,8 +3600,8 @@
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="51"/>
-      <c r="B34" s="50" t="s">
+      <c r="A34" s="53"/>
+      <c r="B34" s="52" t="s">
         <v>190</v>
       </c>
       <c r="C34" s="28" t="s">
@@ -2817,8 +3618,8 @@
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="19" t="s">
         <v>192</v>
       </c>
@@ -2833,8 +3634,8 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="19" t="s">
         <v>193</v>
       </c>
@@ -2849,8 +3650,8 @@
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="19" t="s">
         <v>194</v>
       </c>
@@ -2865,8 +3666,8 @@
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="51"/>
-      <c r="B38" s="52"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="19" t="s">
         <v>195</v>
       </c>
@@ -2881,7 +3682,7 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="51"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="23" t="s">
         <v>11</v>
       </c>
@@ -2895,7 +3696,7 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1">
-      <c r="A40" s="51"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="30" t="s">
         <v>12</v>
       </c>
@@ -2931,7 +3732,7 @@
       <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -2953,7 +3754,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A43" s="48"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="21" t="s">
         <v>32</v>
       </c>
@@ -2973,7 +3774,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -2995,7 +3796,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A45" s="49"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="21" t="s">
         <v>29</v>
       </c>
@@ -3166,7 +3967,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3175,14 +3976,14 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="42"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="57" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3193,7 +3994,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="1">
-      <c r="A4" s="56"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
@@ -3202,14 +4003,14 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="57"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3218,14 +4019,14 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="38.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3233,13 +4034,13 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="39"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="57" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3247,13 +4048,13 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="57"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="44" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3261,13 +4062,13 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="39"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="39"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="4" t="s">
         <v>99</v>
       </c>
@@ -3330,7 +4131,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3349,7 +4150,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
@@ -3364,7 +4165,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="41"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
@@ -3379,7 +4180,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="4" t="s">
         <v>51</v>
       </c>
@@ -3394,7 +4195,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -3409,7 +4210,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="41"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
@@ -3424,7 +4225,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
@@ -3439,7 +4240,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
@@ -3454,7 +4255,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="41"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
@@ -3469,7 +4270,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="4" t="s">
         <v>57</v>
       </c>
@@ -3484,7 +4285,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
@@ -3499,7 +4300,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="41"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
@@ -3514,7 +4315,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="42"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
@@ -3529,7 +4330,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3546,7 +4347,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="4" t="s">
         <v>63</v>
       </c>
@@ -3561,7 +4362,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="42"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="4" t="s">
         <v>64</v>
       </c>
@@ -3576,7 +4377,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3593,7 +4394,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
@@ -3608,7 +4409,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="41"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
@@ -3623,7 +4424,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="4" t="s">
         <v>69</v>
       </c>
@@ -3638,7 +4439,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3655,7 +4456,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="42"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="4" t="s">
         <v>71</v>
       </c>
@@ -3670,7 +4471,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="44" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3689,7 +4490,7 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A25" s="39"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
@@ -3704,7 +4505,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="39"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
@@ -3719,7 +4520,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="39"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
@@ -3734,7 +4535,7 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="39"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="4" t="s">
         <v>52</v>
       </c>
@@ -3749,7 +4550,7 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="39"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
@@ -3764,7 +4565,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="39"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
@@ -3779,7 +4580,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="39"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
@@ -3794,7 +4595,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
@@ -3809,7 +4610,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A33" s="39"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="4" t="s">
         <v>58</v>
       </c>
@@ -3824,7 +4625,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A34" s="39"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
@@ -3839,7 +4640,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A35" s="39"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="4" t="s">
         <v>60</v>
       </c>
@@ -3854,7 +4655,7 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="44" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3871,7 +4672,7 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A37" s="39"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="4" t="s">
         <v>75</v>
       </c>
@@ -3944,7 +4745,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="44" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3961,7 +4762,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="4" t="s">
         <v>80</v>
       </c>
@@ -3976,7 +4777,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="39"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="4" t="s">
         <v>81</v>
       </c>
@@ -4042,7 +4843,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="44" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4059,7 +4860,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
@@ -4278,7 +5079,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="44" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4295,7 +5096,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
@@ -4310,7 +5111,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="38.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="4" t="s">
         <v>99</v>
       </c>
@@ -4357,7 +5158,7 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="44" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -4410,7 +5211,7 @@
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="25.5">
-      <c r="A8" s="39"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="15" t="s">
         <v>261</v>
       </c>
@@ -4617,7 +5418,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="44" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4636,7 +5437,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="4" t="s">
         <v>112</v>
       </c>
@@ -4651,7 +5452,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="44" t="s">
         <v>113</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4668,7 +5469,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="4" t="s">
         <v>115</v>
       </c>
@@ -4683,7 +5484,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="44" t="s">
         <v>116</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4738,7 +5539,7 @@
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="39"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="4" t="s">
         <v>118</v>
       </c>
@@ -4897,7 +5698,7 @@
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="44" t="s">
         <v>121</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -4950,7 +5751,7 @@
       <c r="XFD10"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="4" t="s">
         <v>123</v>
       </c>
@@ -5001,7 +5802,7 @@
       <c r="XFD11"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="39"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="4" t="s">
         <v>124</v>
       </c>
@@ -5052,7 +5853,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="44" t="s">
         <v>125</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -5069,7 +5870,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A14" s="39"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="4" t="s">
         <v>127</v>
       </c>
@@ -5084,7 +5885,7 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7 16349:16384" ht="24.95" customHeight="1">
-      <c r="A15" s="39"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="4" t="s">
         <v>128</v>
       </c>
@@ -5154,7 +5955,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -5171,7 +5972,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="4" t="s">
         <v>130</v>
       </c>
@@ -5186,7 +5987,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A4" s="42"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="4" t="s">
         <v>131</v>
       </c>
@@ -5252,7 +6053,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="44" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -5267,7 +6068,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="4" t="s">
         <v>134</v>
       </c>
@@ -5280,7 +6081,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="39"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="4" t="s">
         <v>135</v>
       </c>
@@ -5293,7 +6094,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="4" t="s">
         <v>136</v>
       </c>
@@ -5306,7 +6107,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="4" t="s">
         <v>137</v>
       </c>
@@ -5319,7 +6120,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="44" t="s">
         <v>138</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -5334,7 +6135,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="4" t="s">
         <v>140</v>
       </c>
@@ -5347,7 +6148,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="39"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="4" t="s">
         <v>141</v>
       </c>
@@ -5360,7 +6161,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="39"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="4" t="s">
         <v>142</v>
       </c>
@@ -5373,7 +6174,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="4" t="s">
         <v>143</v>
       </c>
@@ -5386,7 +6187,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="44" t="s">
         <v>144</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5437,7 +6238,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" s="5" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A13" s="39"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="4" t="s">
         <v>146</v>
       </c>
@@ -5486,7 +6287,7 @@
       <c r="XFD13"/>
     </row>
     <row r="14" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="45" t="s">
         <v>147</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -5537,7 +6338,7 @@
       <c r="XFD14"/>
     </row>
     <row r="15" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="4" t="s">
         <v>149</v>
       </c>
@@ -5586,7 +6387,7 @@
       <c r="XFD15"/>
     </row>
     <row r="16" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="4" t="s">
         <v>150</v>
       </c>
@@ -5635,7 +6436,7 @@
       <c r="XFD16"/>
     </row>
     <row r="17" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="41"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="4" t="s">
         <v>151</v>
       </c>
@@ -5684,7 +6485,7 @@
       <c r="XFD17"/>
     </row>
     <row r="18" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="41"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="4" t="s">
         <v>152</v>
       </c>
@@ -5733,7 +6534,7 @@
       <c r="XFD18"/>
     </row>
     <row r="19" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="4" t="s">
         <v>153</v>
       </c>
@@ -5782,7 +6583,7 @@
       <c r="XFD19"/>
     </row>
     <row r="20" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="41"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="7" t="s">
         <v>154</v>
       </c>
@@ -5831,7 +6632,7 @@
       <c r="XFD20"/>
     </row>
     <row r="21" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="41"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="7" t="s">
         <v>155</v>
       </c>
@@ -5880,7 +6681,7 @@
       <c r="XFD21"/>
     </row>
     <row r="22" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="44" t="s">
         <v>156</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5931,7 +6732,7 @@
       <c r="XFD22"/>
     </row>
     <row r="23" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="39"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="4" t="s">
         <v>158</v>
       </c>
@@ -5980,7 +6781,7 @@
       <c r="XFD23"/>
     </row>
     <row r="24" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="39"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="4" t="s">
         <v>159</v>
       </c>
@@ -6029,7 +6830,7 @@
       <c r="XFD24"/>
     </row>
     <row r="25" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="39"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="4" t="s">
         <v>160</v>
       </c>
@@ -6078,7 +6879,7 @@
       <c r="XFD25"/>
     </row>
     <row r="26" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="39"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="4" t="s">
         <v>161</v>
       </c>
@@ -6127,7 +6928,7 @@
       <c r="XFD26"/>
     </row>
     <row r="27" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="39"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="4" t="s">
         <v>162</v>
       </c>
@@ -6176,7 +6977,7 @@
       <c r="XFD27"/>
     </row>
     <row r="28" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="39"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="4" t="s">
         <v>163</v>
       </c>
@@ -6225,7 +7026,7 @@
       <c r="XFD28"/>
     </row>
     <row r="29" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="44" t="s">
         <v>164</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -6276,7 +7077,7 @@
       <c r="XFD29"/>
     </row>
     <row r="30" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="39"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="4" t="s">
         <v>166</v>
       </c>
@@ -6325,7 +7126,7 @@
       <c r="XFD30"/>
     </row>
     <row r="31" spans="1:7 16349:16384" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="39"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="4" t="s">
         <v>167</v>
       </c>
@@ -6374,7 +7175,7 @@
       <c r="XFD31"/>
     </row>
     <row r="32" spans="1:7 16349:16384" ht="23.25" customHeight="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="4" t="s">
         <v>168</v>
       </c>
@@ -6387,7 +7188,7 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A33" s="39"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="4" t="s">
         <v>169</v>
       </c>
@@ -6400,7 +7201,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A34" s="39"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="4" t="s">
         <v>170</v>
       </c>
@@ -6413,7 +7214,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A35" s="39"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="4" t="s">
         <v>171</v>
       </c>
@@ -6426,7 +7227,7 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A36" s="39"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="4" t="s">
         <v>172</v>
       </c>
@@ -6439,7 +7240,7 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A37" s="39"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="4" t="s">
         <v>173</v>
       </c>
@@ -6452,7 +7253,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A38" s="39"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="4" t="s">
         <v>174</v>
       </c>
@@ -6465,7 +7266,7 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A39" s="39"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="4" t="s">
         <v>175</v>
       </c>
@@ -6478,7 +7279,7 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A40" s="39"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="4" t="s">
         <v>176</v>
       </c>
@@ -6491,7 +7292,7 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A41" s="39"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="4" t="s">
         <v>177</v>
       </c>
@@ -6560,7 +7361,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -6575,7 +7376,7 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
@@ -6592,7 +7393,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="53.1" customHeight="1">
-      <c r="A4" s="41"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
@@ -6609,7 +7410,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
@@ -6624,7 +7425,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="13" t="s">
         <v>44</v>
       </c>

--- a/DOC/DMS开发计划-9.14.xlsx
+++ b/DOC/DMS开发计划-9.14.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="347">
   <si>
     <t>功能模块</t>
   </si>
@@ -948,10 +948,6 @@
   </si>
   <si>
     <t>修改（主界面/详情界面）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定（主界面/详情界面）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1100,10 +1096,6 @@
   </si>
   <si>
     <t>入库单（仓库模块）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成应付</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1178,10 +1170,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>库存设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>财务</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1371,6 +1359,50 @@
   </si>
   <si>
     <t>返工</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾史强</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁升启</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊鹰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张志安</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫敏兰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定维修（主界面/详情界面）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试有无问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收应付记录作废</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1546,7 +1578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1726,6 +1758,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2028,10 +2063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XDT61"/>
+  <dimension ref="A1:XDT62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2074,9 +2109,15 @@
       <c r="B2" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="10">
+        <v>43358</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
@@ -2085,686 +2126,1023 @@
       <c r="B3" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="10">
+        <v>43358</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="10"/>
+        <v>343</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43358</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="40"/>
       <c r="B5" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="10"/>
+        <v>273</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="10">
+        <v>43358</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="40"/>
       <c r="B6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="10"/>
+        <v>274</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43358</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="40"/>
-      <c r="B7" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E7" s="10">
+        <v>43358</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="40"/>
       <c r="B8" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E8" s="10">
+        <v>43358</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="40"/>
       <c r="B9" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E9" s="10">
+        <v>43358</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="40"/>
       <c r="B10" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" s="10">
+        <v>43358</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="40"/>
       <c r="B11" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="10"/>
+        <v>276</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" s="10">
+        <v>43358</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="40"/>
       <c r="B12" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="10"/>
+        <v>277</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="10">
+        <v>43358</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="10"/>
+        <v>278</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43358</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="40"/>
       <c r="B14" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="10"/>
+        <v>279</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" s="10">
+        <v>43358</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="10"/>
+        <v>280</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E15" s="10">
+        <v>43358</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="10"/>
+        <v>281</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E16" s="10">
+        <v>43358</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="40"/>
-      <c r="B17" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="10"/>
+      <c r="B17" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E17" s="10">
+        <v>43358</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="40"/>
-      <c r="B18" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="10"/>
+      <c r="B18" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E18" s="10">
+        <v>43358</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="40"/>
       <c r="B19" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="10"/>
+        <v>286</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" s="10">
+        <v>43358</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="40"/>
-      <c r="B20" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="10"/>
+      <c r="B20" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20" s="10">
+        <v>43358</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A21" s="40"/>
       <c r="B21" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="10"/>
+        <v>288</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E21" s="10">
+        <v>43358</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="40"/>
       <c r="B22" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="10"/>
+        <v>289</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="10">
+        <v>43358</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="40"/>
       <c r="B23" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="10"/>
+        <v>293</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E23" s="10">
+        <v>43358</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="40"/>
       <c r="B24" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="10"/>
+        <v>293</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" s="10">
+        <v>43358</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="40"/>
       <c r="B25" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="10"/>
+      <c r="D25" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E25" s="10">
+        <v>43358</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A26" s="40"/>
-      <c r="B26" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="10"/>
+      <c r="B26" s="60" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E26" s="10">
+        <v>43358</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A27" s="40"/>
       <c r="B27" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="10"/>
+      <c r="D27" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E27" s="10">
+        <v>43358</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A28" s="40"/>
       <c r="B28" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="10"/>
+      <c r="D28" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E28" s="10">
+        <v>43358</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A29" s="40"/>
       <c r="B29" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="10"/>
+      <c r="D29" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E29" s="10">
+        <v>43358</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A30" s="40"/>
       <c r="B30" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="10"/>
+      <c r="D30" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E30" s="10">
+        <v>43358</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A31" s="40"/>
       <c r="B31" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="10"/>
+      <c r="D31" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E31" s="10">
+        <v>43358</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A32" s="39" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="10"/>
+        <v>295</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E32" s="10">
+        <v>43358</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A33" s="40"/>
       <c r="B33" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="10"/>
+        <v>301</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E33" s="10">
+        <v>43358</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="39" t="s">
+        <v>303</v>
+      </c>
       <c r="B34" s="15" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="10"/>
+        <v>344</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E34" s="10">
+        <v>43358</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="10"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E35" s="10">
+        <v>43358</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A36" s="40"/>
-      <c r="B36" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="10"/>
+      <c r="B36" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E36" s="10">
+        <v>43358</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A37" s="40"/>
       <c r="B37" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="10"/>
+        <v>306</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E37" s="10">
+        <v>43358</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A38" s="40"/>
       <c r="B38" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="10"/>
+        <v>307</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E38" s="10">
+        <v>43358</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A39" s="40"/>
       <c r="B39" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="10"/>
+        <v>308</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E39" s="10">
+        <v>43358</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A40" s="41"/>
-      <c r="B40" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="10"/>
+      <c r="B40" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E40" s="10">
+        <v>43358</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A41" s="39" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="10"/>
+        <v>311</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E41" s="10">
+        <v>43358</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A42" s="42"/>
       <c r="B42" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="10"/>
+        <v>312</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E42" s="10">
+        <v>43358</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A43" s="42"/>
-      <c r="B43" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="10"/>
+      <c r="B43" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E43" s="10">
+        <v>43359</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A44" s="42"/>
-      <c r="B44" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="10"/>
+      <c r="B44" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E44" s="10">
+        <v>43359</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A45" s="42"/>
       <c r="B45" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="10"/>
+        <v>314</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E45" s="10">
+        <v>43359</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A46" s="42"/>
       <c r="B46" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="10"/>
+        <v>315</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E46" s="10">
+        <v>43359</v>
+      </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A47" s="42"/>
       <c r="B47" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="10"/>
+        <v>316</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" s="10">
+        <v>43359</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A48" s="42"/>
       <c r="B48" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="10"/>
+        <v>317</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E48" s="10">
+        <v>43359</v>
+      </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A49" s="41"/>
-      <c r="B49" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="10"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E49" s="10">
+        <v>43359</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A50" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>326</v>
+      <c r="A50" s="41"/>
+      <c r="B50" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="10"/>
+        <v>344</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E50" s="10">
+        <v>43359</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
-      <c r="A51" s="44"/>
+    <row r="51" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A51" s="43" t="s">
+        <v>310</v>
+      </c>
       <c r="B51" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="10"/>
+        <v>325</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E51" s="10">
+        <v>43358</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+    <row r="52" spans="1:7" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="A52" s="44"/>
       <c r="B52" s="15" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="10"/>
+        <v>325</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E52" s="10">
+        <v>43358</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A53" s="44"/>
       <c r="B53" s="15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="10"/>
+        <v>325</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E53" s="10">
+        <v>43358</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A54" s="44"/>
       <c r="B54" s="15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="10"/>
+        <v>325</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E54" s="10">
+        <v>43358</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A55" s="44"/>
       <c r="B55" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="10"/>
+        <v>328</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E55" s="10">
+        <v>43358</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A56" s="44"/>
       <c r="B56" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="10"/>
+        <v>329</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E56" s="10">
+        <v>43358</v>
+      </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A57" s="44"/>
       <c r="B57" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="10"/>
+        <v>330</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E57" s="10">
+        <v>43358</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A58" s="44"/>
       <c r="B58" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="10"/>
+        <v>331</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E58" s="10">
+        <v>43358</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
       <c r="A59" s="44"/>
       <c r="B59" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="10"/>
+        <v>333</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E59" s="10">
+        <v>43358</v>
+      </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="38"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A60" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="10"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E60" s="10">
+        <v>43358</v>
+      </c>
       <c r="F60" s="4"/>
       <c r="G60" s="38"/>
     </row>
     <row r="61" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A61" s="44"/>
-      <c r="B61" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="10"/>
+      <c r="A61" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E61" s="10">
+        <v>43359</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="38"/>
     </row>
+    <row r="62" spans="1:7" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A62" s="44"/>
+      <c r="B62" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E62" s="10">
+        <v>43359</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="38"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A2:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="A51:A60"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2777,7 +3155,7 @@
   <dimension ref="A1:XFD50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
@@ -4093,7 +4471,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XDT37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E28" sqref="E25:E28"/>
     </sheetView>
   </sheetViews>
@@ -5380,7 +5758,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:XFD15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D13" sqref="A13:D15"/>
     </sheetView>
   </sheetViews>
@@ -6015,8 +6393,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:XFD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
